--- a/BPS-Amperes.xlsx
+++ b/BPS-Amperes.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tienda\Documents\Projects\LHR\BPS-AmperesPCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A28F2755-B66D-4916-B023-3C2915CBB78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335C9F00-0A88-4AED-9238-AE929D6C2275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BPS-Amperes" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="192">
   <si>
     <t>Source:</t>
   </si>
@@ -70,6 +70,12 @@
     <t>Datasheet</t>
   </si>
   <si>
+    <t>Mfg</t>
+  </si>
+  <si>
+    <t>Mouser#</t>
+  </si>
+  <si>
     <t>C1</t>
   </si>
   <si>
@@ -85,6 +91,9 @@
     <t xml:space="preserve">https://www.mouser.com/ProductDetail/810-C5750X7S2A106M </t>
   </si>
   <si>
+    <t>TMK212BBJ106MGHT</t>
+  </si>
+  <si>
     <t>C2</t>
   </si>
   <si>
@@ -100,6 +109,9 @@
     <t>~</t>
   </si>
   <si>
+    <t>UMK212ABJ225KG-T</t>
+  </si>
+  <si>
     <t>C3</t>
   </si>
   <si>
@@ -109,6 +121,9 @@
     <t>https://www.mouser.com/ProductDetail/KEMET/C0805C102J5HACAUTO?qs=j%252B1pi9TdxUbgwPgoM1tuTw%3D%3D</t>
   </si>
   <si>
+    <t>C0805C102J5HACAUTO</t>
+  </si>
+  <si>
     <t>C4</t>
   </si>
   <si>
@@ -118,12 +133,18 @@
     <t>https://www.mouser.com/ProductDetail/KEMET/C0805C105K5PACTU?qs=mYAa4mSiDJyTAfAbrHf%2FRg%3D%3D</t>
   </si>
   <si>
+    <t>C0805C105K5PACTU</t>
+  </si>
+  <si>
     <t>C5</t>
   </si>
   <si>
     <t>2.2n</t>
   </si>
   <si>
+    <t>C0805J222K5RACAUTO</t>
+  </si>
+  <si>
     <t>C6</t>
   </si>
   <si>
@@ -139,12 +160,18 @@
     <t>470nF</t>
   </si>
   <si>
+    <t>C0805C474K3RAC</t>
+  </si>
+  <si>
     <t>C8</t>
   </si>
   <si>
     <t>0.1u</t>
   </si>
   <si>
+    <t>C0805C104M5RACTU</t>
+  </si>
+  <si>
     <t>C9</t>
   </si>
   <si>
@@ -172,6 +199,9 @@
     <t>47pF</t>
   </si>
   <si>
+    <t>C0805C470JAGACAUTO</t>
+  </si>
+  <si>
     <t>C17</t>
   </si>
   <si>
@@ -190,6 +220,9 @@
     <t>LED_SMD:LED_0805_2012Metric</t>
   </si>
   <si>
+    <t>APTD2012LCGCK</t>
+  </si>
+  <si>
     <t>D2</t>
   </si>
   <si>
@@ -205,6 +238,9 @@
     <t>https://fscdn.rohm.com/en/products/databook/datasheet/discrete/diode/schottky_barrier/rb061qs-20-e.pdf</t>
   </si>
   <si>
+    <t>RB061QS-20T18R</t>
+  </si>
+  <si>
     <t>D3</t>
   </si>
   <si>
@@ -217,6 +253,9 @@
     <t>https://www.mouser.com/datasheet/2/916/BZT52H_Q_SER-2721682.pdf</t>
   </si>
   <si>
+    <t>BZT52H-A3V0-QX</t>
+  </si>
+  <si>
     <t>FB1</t>
   </si>
   <si>
@@ -322,6 +361,9 @@
     <t>Resistor_SMD:R_0805_2012Metric</t>
   </si>
   <si>
+    <t>CRCW08051K20FKEA</t>
+  </si>
+  <si>
     <t>R2</t>
   </si>
   <si>
@@ -331,15 +373,24 @@
     <t>Device:R</t>
   </si>
   <si>
+    <t>CRCW08051K50JNEB</t>
+  </si>
+  <si>
     <t>R3</t>
   </si>
   <si>
     <t>R4</t>
   </si>
   <si>
+    <t>CRCW0805120RFKEA</t>
+  </si>
+  <si>
     <t>R5</t>
   </si>
   <si>
+    <t>CRCW0805806RFKEA</t>
+  </si>
+  <si>
     <t>R6</t>
   </si>
   <si>
@@ -352,12 +403,18 @@
     <t>10k</t>
   </si>
   <si>
+    <t>CRCW080510K0FKEAC</t>
+  </si>
+  <si>
     <t>R8</t>
   </si>
   <si>
     <t>R9</t>
   </si>
   <si>
+    <t>CRCW080550R0FKTA</t>
+  </si>
+  <si>
     <t>TP1</t>
   </si>
   <si>
@@ -433,6 +490,9 @@
     <t>https://www.mouser.com/datasheet/2/468/RO-1711124.pdf</t>
   </si>
   <si>
+    <t>RM-123.3S/H</t>
+  </si>
+  <si>
     <t>U3</t>
   </si>
   <si>
@@ -445,6 +505,9 @@
     <t>Package_SO:MSOP-16_3x4mm_P0.5mm</t>
   </si>
   <si>
+    <t>LTC6820HMS#PBF</t>
+  </si>
+  <si>
     <t>U4</t>
   </si>
   <si>
@@ -481,6 +544,9 @@
     <t>utsvt-chips:LTC2315</t>
   </si>
   <si>
+    <t>584-C2315ITS8-12TMPF</t>
+  </si>
+  <si>
     <t>U7</t>
   </si>
   <si>
@@ -496,6 +562,9 @@
     <t>http://www.ti.com/lit/ds/symlink/opa4196.pdf</t>
   </si>
   <si>
+    <t>OPA2196ID</t>
+  </si>
+  <si>
     <t>Collated Components:</t>
   </si>
   <si>
@@ -521,12 +590,18 @@
   </si>
   <si>
     <t>R7, R8</t>
+  </si>
+  <si>
+    <t>Mouser link to cart:</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProjectManager/ProjectDetail.aspx?AccessID=4526e229a3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1361,1923 +1436,2105 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G110"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
-        <v>44842.702106481483</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" s="1">
+        <v>44843.668043981481</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>13</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
         <v>14</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
+      <c r="H10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" t="s">
+      <c r="I10" t="s">
         <v>17</v>
       </c>
-      <c r="E10" t="s">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="F10" t="s">
+      <c r="D11" t="s">
         <v>19</v>
       </c>
-      <c r="G10" t="s">
+      <c r="E11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
+      <c r="F11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" t="s">
+      <c r="G11" t="s">
         <v>22</v>
       </c>
-      <c r="E11" t="s">
+      <c r="H11" t="s">
         <v>23</v>
       </c>
-      <c r="F11" t="s">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="G11" t="s">
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>26</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>27</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" t="s">
+        <v>81</v>
+      </c>
+      <c r="G32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" t="s">
+        <v>81</v>
+      </c>
+      <c r="G33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" t="s">
+        <v>86</v>
+      </c>
+      <c r="F34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" t="s">
+        <v>86</v>
+      </c>
+      <c r="F35" t="s">
+        <v>87</v>
+      </c>
+      <c r="G35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" t="s">
+        <v>87</v>
+      </c>
+      <c r="G36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" t="s">
+        <v>86</v>
+      </c>
+      <c r="F37" t="s">
+        <v>87</v>
+      </c>
+      <c r="G37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" t="s">
+        <v>93</v>
+      </c>
+      <c r="F38" t="s">
+        <v>94</v>
+      </c>
+      <c r="G38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" t="s">
+        <v>98</v>
+      </c>
+      <c r="G39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" t="s">
+        <v>97</v>
+      </c>
+      <c r="F40" t="s">
+        <v>101</v>
+      </c>
+      <c r="G40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" t="s">
+        <v>104</v>
+      </c>
+      <c r="F41" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" t="s">
+        <v>110</v>
+      </c>
+      <c r="E43" t="s">
+        <v>111</v>
+      </c>
+      <c r="F43" t="s">
+        <v>112</v>
+      </c>
+      <c r="G43" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" t="s">
+        <v>115</v>
+      </c>
+      <c r="E44" t="s">
+        <v>116</v>
+      </c>
+      <c r="F44" t="s">
+        <v>112</v>
+      </c>
+      <c r="G44" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45" t="s">
+        <v>110</v>
+      </c>
+      <c r="E45" t="s">
+        <v>111</v>
+      </c>
+      <c r="F45" t="s">
+        <v>112</v>
+      </c>
+      <c r="G45" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>119</v>
+      </c>
+      <c r="D46">
+        <v>120</v>
+      </c>
+      <c r="E46" t="s">
+        <v>116</v>
+      </c>
+      <c r="F46" t="s">
+        <v>112</v>
+      </c>
+      <c r="G46" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>121</v>
+      </c>
+      <c r="D47">
+        <v>806</v>
+      </c>
+      <c r="E47" t="s">
+        <v>116</v>
+      </c>
+      <c r="F47" t="s">
+        <v>112</v>
+      </c>
+      <c r="G47" t="s">
+        <v>28</v>
+      </c>
+      <c r="H47" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>123</v>
+      </c>
+      <c r="D48" t="s">
+        <v>124</v>
+      </c>
+      <c r="E48" t="s">
+        <v>116</v>
+      </c>
+      <c r="F48" t="s">
+        <v>112</v>
+      </c>
+      <c r="G48" t="s">
+        <v>28</v>
+      </c>
+      <c r="H48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>125</v>
+      </c>
+      <c r="D49" t="s">
+        <v>126</v>
+      </c>
+      <c r="E49" t="s">
+        <v>111</v>
+      </c>
+      <c r="F49" t="s">
+        <v>112</v>
+      </c>
+      <c r="G49" t="s">
+        <v>28</v>
+      </c>
+      <c r="H49" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>128</v>
+      </c>
+      <c r="D50" t="s">
+        <v>126</v>
+      </c>
+      <c r="E50" t="s">
+        <v>111</v>
+      </c>
+      <c r="F50" t="s">
+        <v>112</v>
+      </c>
+      <c r="G50" t="s">
+        <v>28</v>
+      </c>
+      <c r="H50" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>129</v>
+      </c>
+      <c r="D51">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>111</v>
+      </c>
+      <c r="F51" t="s">
+        <v>112</v>
+      </c>
+      <c r="G51" t="s">
+        <v>28</v>
+      </c>
+      <c r="H51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>131</v>
+      </c>
+      <c r="D52" t="s">
+        <v>132</v>
+      </c>
+      <c r="E52" t="s">
+        <v>133</v>
+      </c>
+      <c r="F52" t="s">
+        <v>134</v>
+      </c>
+      <c r="G52" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>135</v>
+      </c>
+      <c r="D53" t="s">
+        <v>136</v>
+      </c>
+      <c r="E53" t="s">
+        <v>133</v>
+      </c>
+      <c r="F53" t="s">
+        <v>134</v>
+      </c>
+      <c r="G53" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>137</v>
+      </c>
+      <c r="D54" t="s">
+        <v>138</v>
+      </c>
+      <c r="E54" t="s">
+        <v>133</v>
+      </c>
+      <c r="F54" t="s">
+        <v>134</v>
+      </c>
+      <c r="G54" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>139</v>
+      </c>
+      <c r="D55" t="s">
+        <v>140</v>
+      </c>
+      <c r="E55" t="s">
+        <v>133</v>
+      </c>
+      <c r="F55" t="s">
+        <v>134</v>
+      </c>
+      <c r="G55" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>141</v>
+      </c>
+      <c r="D56" t="s">
+        <v>142</v>
+      </c>
+      <c r="E56" t="s">
+        <v>133</v>
+      </c>
+      <c r="G56" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>143</v>
+      </c>
+      <c r="D57" t="s">
+        <v>144</v>
+      </c>
+      <c r="E57" t="s">
+        <v>133</v>
+      </c>
+      <c r="F57" t="s">
+        <v>134</v>
+      </c>
+      <c r="G57" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D58" t="s">
+        <v>146</v>
+      </c>
+      <c r="E58" t="s">
+        <v>133</v>
+      </c>
+      <c r="F58" t="s">
+        <v>134</v>
+      </c>
+      <c r="G58" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>147</v>
+      </c>
+      <c r="D59" t="s">
+        <v>148</v>
+      </c>
+      <c r="E59" t="s">
+        <v>149</v>
+      </c>
+      <c r="F59" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>151</v>
+      </c>
+      <c r="D60" t="s">
+        <v>152</v>
+      </c>
+      <c r="E60" t="s">
+        <v>153</v>
+      </c>
+      <c r="F60" t="s">
+        <v>154</v>
+      </c>
+      <c r="G60" t="s">
+        <v>155</v>
+      </c>
+      <c r="H60" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>157</v>
+      </c>
+      <c r="D61" t="s">
+        <v>158</v>
+      </c>
+      <c r="E61" t="s">
+        <v>159</v>
+      </c>
+      <c r="F61" t="s">
+        <v>160</v>
+      </c>
+      <c r="H61" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>162</v>
+      </c>
+      <c r="D62" t="s">
+        <v>163</v>
+      </c>
+      <c r="E62" t="s">
+        <v>164</v>
+      </c>
+      <c r="F62" t="s">
+        <v>165</v>
+      </c>
+      <c r="G62" t="s">
+        <v>166</v>
+      </c>
+      <c r="H62" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>167</v>
+      </c>
+      <c r="D63" t="s">
+        <v>168</v>
+      </c>
+      <c r="E63" t="s">
+        <v>169</v>
+      </c>
+      <c r="F63" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
+        <v>171</v>
+      </c>
+      <c r="D64" t="s">
+        <v>172</v>
+      </c>
+      <c r="E64" t="s">
+        <v>173</v>
+      </c>
+      <c r="F64" t="s">
+        <v>150</v>
+      </c>
+      <c r="H64" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>175</v>
+      </c>
+      <c r="D65" t="s">
+        <v>176</v>
+      </c>
+      <c r="E65" t="s">
+        <v>177</v>
+      </c>
+      <c r="F65" t="s">
+        <v>178</v>
+      </c>
+      <c r="G65" t="s">
+        <v>179</v>
+      </c>
+      <c r="H65" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" t="s">
+        <v>14</v>
+      </c>
+      <c r="G71" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" t="s">
+        <v>16</v>
+      </c>
+      <c r="I71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
         <v>18</v>
       </c>
-      <c r="F12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
+      <c r="D72" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" t="s">
+        <v>20</v>
+      </c>
+      <c r="F72" t="s">
+        <v>21</v>
+      </c>
+      <c r="G72" t="s">
+        <v>22</v>
+      </c>
+      <c r="H72" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>2</v>
+      </c>
+      <c r="B73">
+        <v>4</v>
+      </c>
+      <c r="C73" t="s">
+        <v>182</v>
+      </c>
+      <c r="D73" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" t="s">
+        <v>26</v>
+      </c>
+      <c r="F73" t="s">
+        <v>27</v>
+      </c>
+      <c r="G73" t="s">
+        <v>28</v>
+      </c>
+      <c r="H73" t="s">
         <v>29</v>
       </c>
-      <c r="D13" t="s">
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>3</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
         <v>30</v>
       </c>
-      <c r="E13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="D74" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
+      <c r="E74" t="s">
+        <v>20</v>
+      </c>
+      <c r="F74" t="s">
+        <v>27</v>
+      </c>
+      <c r="G74" t="s">
         <v>32</v>
       </c>
-      <c r="D14" t="s">
+      <c r="H74" t="s">
         <v>33</v>
       </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" t="s">
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>4</v>
+      </c>
+      <c r="B75">
+        <v>4</v>
+      </c>
+      <c r="C75" t="s">
+        <v>183</v>
+      </c>
+      <c r="D75" t="s">
         <v>35</v>
       </c>
-      <c r="E15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="E75" t="s">
+        <v>26</v>
+      </c>
+      <c r="F75" t="s">
+        <v>27</v>
+      </c>
+      <c r="G75" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
+      <c r="H75" t="s">
         <v>37</v>
       </c>
-      <c r="D16" t="s">
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>5</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
         <v>38</v>
       </c>
-      <c r="E16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
+      <c r="D76" t="s">
         <v>39</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E76" t="s">
+        <v>20</v>
+      </c>
+      <c r="F76" t="s">
+        <v>27</v>
+      </c>
+      <c r="G76" t="s">
+        <v>28</v>
+      </c>
+      <c r="H76" t="s">
         <v>40</v>
       </c>
-      <c r="E17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>6</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>184</v>
+      </c>
+      <c r="D77" t="s">
         <v>42</v>
       </c>
-      <c r="D19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
+      <c r="E77" t="s">
+        <v>26</v>
+      </c>
+      <c r="F77" t="s">
+        <v>27</v>
+      </c>
+      <c r="G77" t="s">
         <v>43</v>
       </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>7</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
         <v>44</v>
       </c>
-      <c r="D21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
+      <c r="D78" t="s">
         <v>45</v>
       </c>
-      <c r="D22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
+      <c r="E78" t="s">
+        <v>26</v>
+      </c>
+      <c r="F78" t="s">
+        <v>27</v>
+      </c>
+      <c r="G78" t="s">
+        <v>28</v>
+      </c>
+      <c r="H78" t="s">
         <v>46</v>
       </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>8</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79" t="s">
+        <v>185</v>
+      </c>
+      <c r="D79" t="s">
         <v>48</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E79" t="s">
+        <v>20</v>
+      </c>
+      <c r="F79" t="s">
+        <v>27</v>
+      </c>
+      <c r="G79" t="s">
+        <v>43</v>
+      </c>
+      <c r="H79" t="s">
         <v>49</v>
       </c>
-      <c r="E25" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C27" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" t="s">
-        <v>54</v>
-      </c>
-      <c r="F28" t="s">
-        <v>55</v>
-      </c>
-      <c r="G28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C29" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F29" t="s">
-        <v>59</v>
-      </c>
-      <c r="G29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30" t="s">
-        <v>59</v>
-      </c>
-      <c r="G30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C31" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" t="s">
-        <v>67</v>
-      </c>
-      <c r="F31" t="s">
-        <v>68</v>
-      </c>
-      <c r="G31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" t="s">
-        <v>67</v>
-      </c>
-      <c r="F32" t="s">
-        <v>68</v>
-      </c>
-      <c r="G32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" t="s">
-        <v>73</v>
-      </c>
-      <c r="F33" t="s">
-        <v>74</v>
-      </c>
-      <c r="G33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C34" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" t="s">
-        <v>72</v>
-      </c>
-      <c r="E34" t="s">
-        <v>73</v>
-      </c>
-      <c r="F34" t="s">
-        <v>74</v>
-      </c>
-      <c r="G34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C35" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35" t="s">
-        <v>73</v>
-      </c>
-      <c r="F35" t="s">
-        <v>74</v>
-      </c>
-      <c r="G35" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C36" t="s">
-        <v>77</v>
-      </c>
-      <c r="D36" t="s">
-        <v>72</v>
-      </c>
-      <c r="E36" t="s">
-        <v>73</v>
-      </c>
-      <c r="F36" t="s">
-        <v>74</v>
-      </c>
-      <c r="G36" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C37" t="s">
-        <v>78</v>
-      </c>
-      <c r="D37" t="s">
-        <v>79</v>
-      </c>
-      <c r="E37" t="s">
-        <v>80</v>
-      </c>
-      <c r="F37" t="s">
-        <v>81</v>
-      </c>
-      <c r="G37" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C38" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" t="s">
-        <v>83</v>
-      </c>
-      <c r="E38" t="s">
-        <v>84</v>
-      </c>
-      <c r="F38" t="s">
-        <v>85</v>
-      </c>
-      <c r="G38" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C39" t="s">
-        <v>86</v>
-      </c>
-      <c r="D39" t="s">
-        <v>87</v>
-      </c>
-      <c r="E39" t="s">
-        <v>84</v>
-      </c>
-      <c r="F39" t="s">
-        <v>88</v>
-      </c>
-      <c r="G39" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C40" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" t="s">
-        <v>90</v>
-      </c>
-      <c r="E40" t="s">
-        <v>91</v>
-      </c>
-      <c r="F40" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C41" t="s">
-        <v>93</v>
-      </c>
-      <c r="D41" t="s">
-        <v>94</v>
-      </c>
-      <c r="E41" t="s">
-        <v>91</v>
-      </c>
-      <c r="F41" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C42" t="s">
-        <v>96</v>
-      </c>
-      <c r="D42" t="s">
-        <v>97</v>
-      </c>
-      <c r="E42" t="s">
-        <v>98</v>
-      </c>
-      <c r="F42" t="s">
-        <v>99</v>
-      </c>
-      <c r="G42" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C43" t="s">
-        <v>100</v>
-      </c>
-      <c r="D43" t="s">
-        <v>101</v>
-      </c>
-      <c r="E43" t="s">
-        <v>102</v>
-      </c>
-      <c r="F43" t="s">
-        <v>99</v>
-      </c>
-      <c r="G43" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C44" t="s">
-        <v>103</v>
-      </c>
-      <c r="D44" t="s">
-        <v>97</v>
-      </c>
-      <c r="E44" t="s">
-        <v>98</v>
-      </c>
-      <c r="F44" t="s">
-        <v>99</v>
-      </c>
-      <c r="G44" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C45" t="s">
-        <v>104</v>
-      </c>
-      <c r="D45">
-        <v>120</v>
-      </c>
-      <c r="E45" t="s">
-        <v>102</v>
-      </c>
-      <c r="F45" t="s">
-        <v>99</v>
-      </c>
-      <c r="G45" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C46" t="s">
-        <v>105</v>
-      </c>
-      <c r="D46">
-        <v>806</v>
-      </c>
-      <c r="E46" t="s">
-        <v>102</v>
-      </c>
-      <c r="F46" t="s">
-        <v>99</v>
-      </c>
-      <c r="G46" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C47" t="s">
-        <v>106</v>
-      </c>
-      <c r="D47" t="s">
-        <v>107</v>
-      </c>
-      <c r="E47" t="s">
-        <v>102</v>
-      </c>
-      <c r="F47" t="s">
-        <v>99</v>
-      </c>
-      <c r="G47" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C48" t="s">
-        <v>108</v>
-      </c>
-      <c r="D48" t="s">
-        <v>109</v>
-      </c>
-      <c r="E48" t="s">
-        <v>98</v>
-      </c>
-      <c r="F48" t="s">
-        <v>99</v>
-      </c>
-      <c r="G48" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C49" t="s">
-        <v>110</v>
-      </c>
-      <c r="D49" t="s">
-        <v>109</v>
-      </c>
-      <c r="E49" t="s">
-        <v>98</v>
-      </c>
-      <c r="F49" t="s">
-        <v>99</v>
-      </c>
-      <c r="G49" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C50" t="s">
-        <v>111</v>
-      </c>
-      <c r="D50">
-        <v>50</v>
-      </c>
-      <c r="E50" t="s">
-        <v>98</v>
-      </c>
-      <c r="F50" t="s">
-        <v>99</v>
-      </c>
-      <c r="G50" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C51" t="s">
-        <v>112</v>
-      </c>
-      <c r="D51" t="s">
-        <v>113</v>
-      </c>
-      <c r="E51" t="s">
-        <v>114</v>
-      </c>
-      <c r="F51" t="s">
-        <v>115</v>
-      </c>
-      <c r="G51" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C52" t="s">
-        <v>116</v>
-      </c>
-      <c r="D52" t="s">
-        <v>117</v>
-      </c>
-      <c r="E52" t="s">
-        <v>114</v>
-      </c>
-      <c r="F52" t="s">
-        <v>115</v>
-      </c>
-      <c r="G52" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C53" t="s">
-        <v>118</v>
-      </c>
-      <c r="D53" t="s">
-        <v>119</v>
-      </c>
-      <c r="E53" t="s">
-        <v>114</v>
-      </c>
-      <c r="F53" t="s">
-        <v>115</v>
-      </c>
-      <c r="G53" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C54" t="s">
-        <v>120</v>
-      </c>
-      <c r="D54" t="s">
-        <v>121</v>
-      </c>
-      <c r="E54" t="s">
-        <v>114</v>
-      </c>
-      <c r="F54" t="s">
-        <v>115</v>
-      </c>
-      <c r="G54" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C55" t="s">
-        <v>122</v>
-      </c>
-      <c r="D55" t="s">
-        <v>123</v>
-      </c>
-      <c r="E55" t="s">
-        <v>114</v>
-      </c>
-      <c r="G55" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C56" t="s">
-        <v>124</v>
-      </c>
-      <c r="D56" t="s">
-        <v>125</v>
-      </c>
-      <c r="E56" t="s">
-        <v>114</v>
-      </c>
-      <c r="F56" t="s">
-        <v>115</v>
-      </c>
-      <c r="G56" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C57" t="s">
-        <v>126</v>
-      </c>
-      <c r="D57" t="s">
-        <v>127</v>
-      </c>
-      <c r="E57" t="s">
-        <v>114</v>
-      </c>
-      <c r="F57" t="s">
-        <v>115</v>
-      </c>
-      <c r="G57" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C58" t="s">
-        <v>128</v>
-      </c>
-      <c r="D58" t="s">
-        <v>129</v>
-      </c>
-      <c r="E58" t="s">
-        <v>130</v>
-      </c>
-      <c r="F58" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C59" t="s">
-        <v>132</v>
-      </c>
-      <c r="D59" t="s">
-        <v>133</v>
-      </c>
-      <c r="E59" t="s">
-        <v>134</v>
-      </c>
-      <c r="F59" t="s">
-        <v>135</v>
-      </c>
-      <c r="G59" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C60" t="s">
-        <v>137</v>
-      </c>
-      <c r="D60" t="s">
-        <v>138</v>
-      </c>
-      <c r="E60" t="s">
-        <v>139</v>
-      </c>
-      <c r="F60" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C61" t="s">
-        <v>141</v>
-      </c>
-      <c r="D61" t="s">
-        <v>142</v>
-      </c>
-      <c r="E61" t="s">
-        <v>143</v>
-      </c>
-      <c r="F61" t="s">
-        <v>144</v>
-      </c>
-      <c r="G61" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C62" t="s">
-        <v>146</v>
-      </c>
-      <c r="D62" t="s">
-        <v>147</v>
-      </c>
-      <c r="E62" t="s">
-        <v>148</v>
-      </c>
-      <c r="F62" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C63" t="s">
-        <v>150</v>
-      </c>
-      <c r="D63" t="s">
-        <v>151</v>
-      </c>
-      <c r="E63" t="s">
-        <v>152</v>
-      </c>
-      <c r="F63" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C64" t="s">
-        <v>153</v>
-      </c>
-      <c r="D64" t="s">
-        <v>154</v>
-      </c>
-      <c r="E64" t="s">
-        <v>155</v>
-      </c>
-      <c r="F64" t="s">
-        <v>156</v>
-      </c>
-      <c r="G64" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80">
         <v>9</v>
-      </c>
-      <c r="B70" t="s">
-        <v>10</v>
-      </c>
-      <c r="C70" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s">
-        <v>12</v>
-      </c>
-      <c r="E70" t="s">
-        <v>13</v>
-      </c>
-      <c r="F70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>1</v>
-      </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-      <c r="C71" t="s">
-        <v>16</v>
-      </c>
-      <c r="D71" t="s">
-        <v>17</v>
-      </c>
-      <c r="E71" t="s">
-        <v>18</v>
-      </c>
-      <c r="F71" t="s">
-        <v>19</v>
-      </c>
-      <c r="G71" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>2</v>
-      </c>
-      <c r="B72">
-        <v>4</v>
-      </c>
-      <c r="C72" t="s">
-        <v>159</v>
-      </c>
-      <c r="D72" t="s">
-        <v>22</v>
-      </c>
-      <c r="E72" t="s">
-        <v>23</v>
-      </c>
-      <c r="F72" t="s">
-        <v>24</v>
-      </c>
-      <c r="G72" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>3</v>
-      </c>
-      <c r="B73">
-        <v>1</v>
-      </c>
-      <c r="C73" t="s">
-        <v>26</v>
-      </c>
-      <c r="D73" t="s">
-        <v>27</v>
-      </c>
-      <c r="E73" t="s">
-        <v>18</v>
-      </c>
-      <c r="F73" t="s">
-        <v>24</v>
-      </c>
-      <c r="G73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>4</v>
-      </c>
-      <c r="B74">
-        <v>4</v>
-      </c>
-      <c r="C74" t="s">
-        <v>160</v>
-      </c>
-      <c r="D74" t="s">
-        <v>30</v>
-      </c>
-      <c r="E74" t="s">
-        <v>23</v>
-      </c>
-      <c r="F74" t="s">
-        <v>24</v>
-      </c>
-      <c r="G74" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>5</v>
-      </c>
-      <c r="B75">
-        <v>1</v>
-      </c>
-      <c r="C75" t="s">
-        <v>32</v>
-      </c>
-      <c r="D75" t="s">
-        <v>33</v>
-      </c>
-      <c r="E75" t="s">
-        <v>18</v>
-      </c>
-      <c r="F75" t="s">
-        <v>24</v>
-      </c>
-      <c r="G75" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>6</v>
-      </c>
-      <c r="B76">
-        <v>3</v>
-      </c>
-      <c r="C76" t="s">
-        <v>161</v>
-      </c>
-      <c r="D76" t="s">
-        <v>35</v>
-      </c>
-      <c r="E76" t="s">
-        <v>23</v>
-      </c>
-      <c r="F76" t="s">
-        <v>24</v>
-      </c>
-      <c r="G76" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>7</v>
-      </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
-      <c r="C77" t="s">
-        <v>37</v>
-      </c>
-      <c r="D77" t="s">
-        <v>38</v>
-      </c>
-      <c r="E77" t="s">
-        <v>23</v>
-      </c>
-      <c r="F77" t="s">
-        <v>24</v>
-      </c>
-      <c r="G77" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>8</v>
-      </c>
-      <c r="B78">
-        <v>2</v>
-      </c>
-      <c r="C78" t="s">
-        <v>162</v>
-      </c>
-      <c r="D78" t="s">
-        <v>40</v>
-      </c>
-      <c r="E78" t="s">
-        <v>18</v>
-      </c>
-      <c r="F78" t="s">
-        <v>24</v>
-      </c>
-      <c r="G78" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>9</v>
-      </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
-      <c r="C79" t="s">
-        <v>48</v>
-      </c>
-      <c r="D79" t="s">
-        <v>49</v>
-      </c>
-      <c r="E79" t="s">
-        <v>23</v>
-      </c>
-      <c r="F79" t="s">
-        <v>24</v>
-      </c>
-      <c r="G79" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>10</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D80" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E80" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="F80" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="G80" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="H80" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D81" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E81" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F81" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G81" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="H81" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B82">
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D82" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E82" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F82" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G82" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="H82" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83">
+        <v>12</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>73</v>
+      </c>
+      <c r="D83" t="s">
+        <v>74</v>
+      </c>
+      <c r="E83" t="s">
+        <v>75</v>
+      </c>
+      <c r="F83" t="s">
+        <v>70</v>
+      </c>
+      <c r="G83" t="s">
+        <v>76</v>
+      </c>
+      <c r="H83" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84">
         <v>13</v>
       </c>
-      <c r="B83">
+      <c r="B84">
         <v>2</v>
       </c>
-      <c r="C83" t="s">
-        <v>163</v>
-      </c>
-      <c r="D83" t="s">
-        <v>66</v>
-      </c>
-      <c r="E83" t="s">
-        <v>67</v>
-      </c>
-      <c r="F83" t="s">
-        <v>68</v>
-      </c>
-      <c r="G83" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84">
+      <c r="C84" t="s">
+        <v>186</v>
+      </c>
+      <c r="D84" t="s">
+        <v>79</v>
+      </c>
+      <c r="E84" t="s">
+        <v>80</v>
+      </c>
+      <c r="F84" t="s">
+        <v>81</v>
+      </c>
+      <c r="G84" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85">
         <v>14</v>
       </c>
-      <c r="B84">
+      <c r="B85">
         <v>4</v>
       </c>
-      <c r="C84" t="s">
-        <v>164</v>
-      </c>
-      <c r="D84" t="s">
-        <v>72</v>
-      </c>
-      <c r="E84" t="s">
-        <v>73</v>
-      </c>
-      <c r="F84" t="s">
-        <v>74</v>
-      </c>
-      <c r="G84" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85">
+      <c r="C85" t="s">
+        <v>187</v>
+      </c>
+      <c r="D85" t="s">
+        <v>85</v>
+      </c>
+      <c r="E85" t="s">
+        <v>86</v>
+      </c>
+      <c r="F85" t="s">
+        <v>87</v>
+      </c>
+      <c r="G85" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86">
         <v>15</v>
-      </c>
-      <c r="B85">
-        <v>1</v>
-      </c>
-      <c r="C85" t="s">
-        <v>78</v>
-      </c>
-      <c r="D85" t="s">
-        <v>79</v>
-      </c>
-      <c r="E85" t="s">
-        <v>80</v>
-      </c>
-      <c r="F85" t="s">
-        <v>81</v>
-      </c>
-      <c r="G85" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>16</v>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D86" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E86" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F86" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G86" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D87" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E87" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F87" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="G87" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B88">
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D88" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E88" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F88" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="G88" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D89" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E89" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="F89" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90">
+        <v>19</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>106</v>
+      </c>
+      <c r="D90" t="s">
+        <v>107</v>
+      </c>
+      <c r="E90" t="s">
+        <v>104</v>
+      </c>
+      <c r="F90" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91">
         <v>20</v>
       </c>
-      <c r="B90">
+      <c r="B91">
         <v>2</v>
       </c>
-      <c r="C90" t="s">
-        <v>165</v>
-      </c>
-      <c r="D90" t="s">
-        <v>97</v>
-      </c>
-      <c r="E90" t="s">
-        <v>98</v>
-      </c>
-      <c r="F90" t="s">
-        <v>99</v>
-      </c>
-      <c r="G90" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91">
+      <c r="C91" t="s">
+        <v>188</v>
+      </c>
+      <c r="D91" t="s">
+        <v>110</v>
+      </c>
+      <c r="E91" t="s">
+        <v>111</v>
+      </c>
+      <c r="F91" t="s">
+        <v>112</v>
+      </c>
+      <c r="G91" t="s">
+        <v>28</v>
+      </c>
+      <c r="H91" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92">
         <v>21</v>
-      </c>
-      <c r="B91">
-        <v>1</v>
-      </c>
-      <c r="C91" t="s">
-        <v>100</v>
-      </c>
-      <c r="D91" t="s">
-        <v>101</v>
-      </c>
-      <c r="E91" t="s">
-        <v>102</v>
-      </c>
-      <c r="F91" t="s">
-        <v>99</v>
-      </c>
-      <c r="G91" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>22</v>
       </c>
       <c r="B92">
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>104</v>
-      </c>
-      <c r="D92">
-        <v>120</v>
+        <v>114</v>
+      </c>
+      <c r="D92" t="s">
+        <v>115</v>
       </c>
       <c r="E92" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="F92" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="G92" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="H92" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="D93">
-        <v>806</v>
+        <v>120</v>
       </c>
       <c r="E93" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="F93" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="G93" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="H93" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B94">
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>106</v>
-      </c>
-      <c r="D94" t="s">
-        <v>107</v>
+        <v>121</v>
+      </c>
+      <c r="D94">
+        <v>806</v>
       </c>
       <c r="E94" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="F94" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="G94" t="s">
+        <v>28</v>
+      </c>
+      <c r="H94" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>24</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>123</v>
+      </c>
+      <c r="D95" t="s">
+        <v>124</v>
+      </c>
+      <c r="E95" t="s">
+        <v>116</v>
+      </c>
+      <c r="F95" t="s">
+        <v>112</v>
+      </c>
+      <c r="G95" t="s">
+        <v>28</v>
+      </c>
+      <c r="H95" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96">
         <v>25</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <v>25</v>
-      </c>
-      <c r="B95">
+      <c r="B96">
         <v>2</v>
       </c>
-      <c r="C95" t="s">
-        <v>166</v>
-      </c>
-      <c r="D95" t="s">
-        <v>109</v>
-      </c>
-      <c r="E95" t="s">
-        <v>98</v>
-      </c>
-      <c r="F95" t="s">
-        <v>99</v>
-      </c>
-      <c r="G95" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96">
+      <c r="C96" t="s">
+        <v>189</v>
+      </c>
+      <c r="D96" t="s">
+        <v>126</v>
+      </c>
+      <c r="E96" t="s">
+        <v>111</v>
+      </c>
+      <c r="F96" t="s">
+        <v>112</v>
+      </c>
+      <c r="G96" t="s">
+        <v>28</v>
+      </c>
+      <c r="H96" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97">
         <v>26</v>
-      </c>
-      <c r="B96">
-        <v>1</v>
-      </c>
-      <c r="C96" t="s">
-        <v>111</v>
-      </c>
-      <c r="D96">
-        <v>50</v>
-      </c>
-      <c r="E96" t="s">
-        <v>98</v>
-      </c>
-      <c r="F96" t="s">
-        <v>99</v>
-      </c>
-      <c r="G96" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>27</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
       <c r="C97" t="s">
+        <v>129</v>
+      </c>
+      <c r="D97">
+        <v>50</v>
+      </c>
+      <c r="E97" t="s">
+        <v>111</v>
+      </c>
+      <c r="F97" t="s">
         <v>112</v>
       </c>
-      <c r="D97" t="s">
-        <v>113</v>
-      </c>
-      <c r="E97" t="s">
-        <v>114</v>
-      </c>
-      <c r="F97" t="s">
-        <v>115</v>
-      </c>
       <c r="G97" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="H97" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B98">
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="D98" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="E98" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="F98" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="G98" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B99">
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="D99" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="E99" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="F99" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="G99" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B100">
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="D100" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="E100" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="F100" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="G100" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="D101" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="E101" t="s">
-        <v>114</v>
+        <v>133</v>
+      </c>
+      <c r="F101" t="s">
+        <v>134</v>
       </c>
       <c r="G101" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="D102" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="E102" t="s">
-        <v>114</v>
-      </c>
-      <c r="F102" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="G102" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B103">
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="D103" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="E103" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="F103" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="G103" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B104">
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="D104" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="E104" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F104" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+      <c r="G104" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="D105" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="E105" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="F105" t="s">
-        <v>135</v>
-      </c>
-      <c r="G105" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B106">
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="D106" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="E106" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="F106" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+      <c r="G106" t="s">
+        <v>155</v>
+      </c>
+      <c r="H106" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B107">
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="D107" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="E107" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="F107" t="s">
-        <v>144</v>
-      </c>
-      <c r="G107" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="H107" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B108">
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="D108" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="E108" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="F108" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+      <c r="G108" t="s">
+        <v>166</v>
+      </c>
+      <c r="H108" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B109">
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="D109" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="E109" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="F109" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B110">
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="D110" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="E110" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="F110" t="s">
-        <v>156</v>
-      </c>
-      <c r="G110" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="H110" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>40</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111" t="s">
+        <v>175</v>
+      </c>
+      <c r="D111" t="s">
+        <v>176</v>
+      </c>
+      <c r="E111" t="s">
+        <v>177</v>
+      </c>
+      <c r="F111" t="s">
+        <v>178</v>
+      </c>
+      <c r="G111" t="s">
+        <v>179</v>
+      </c>
+      <c r="H111" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/BPS-Amperes.xlsx
+++ b/BPS-Amperes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tienda\Documents\Projects\LHR\BPS-AmperesPCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA08824B-38B0-453C-95A7-8B7F33241A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1345CB6D-B063-4D42-889B-60484934BD7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2460" yWindow="2676" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BPS-Amperes" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="164">
   <si>
     <t>Item</t>
   </si>
@@ -58,9 +58,6 @@
     <t>UTSVT_Passive:C_2220_5750Metrix</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mouser.com/ProductDetail/810-C5750X7S2A106M </t>
-  </si>
-  <si>
     <t>C5750X7S2A106M230KB</t>
   </si>
   <si>
@@ -196,9 +193,6 @@
     <t>https://www.mouser.com/ProductDetail/963-BK2125LM182-T</t>
   </si>
   <si>
-    <t>BK2125LM182-T</t>
-  </si>
-  <si>
     <t>J1</t>
   </si>
   <si>
@@ -286,9 +280,6 @@
     <t>Device:R</t>
   </si>
   <si>
-    <t>CRCW08051K50JNEB</t>
-  </si>
-  <si>
     <t>R4</t>
   </si>
   <si>
@@ -298,9 +289,6 @@
     <t>R5</t>
   </si>
   <si>
-    <t>CRCW0805806RFKEA</t>
-  </si>
-  <si>
     <t>R6</t>
   </si>
   <si>
@@ -316,9 +304,6 @@
     <t>R9</t>
   </si>
   <si>
-    <t>CRCW080550R0FKTA</t>
-  </si>
-  <si>
     <t>TP1</t>
   </si>
   <si>
@@ -508,14 +493,32 @@
     <t>Mouser Cart</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProjectManager/ProjectDetail.aspx?AccessID=a8874ebfaa</t>
+    <t>CGA9N3X7S2A106K230KE</t>
+  </si>
+  <si>
+    <t>BLM21BD182SN1D</t>
+  </si>
+  <si>
+    <t>SDR10EZPJ152</t>
+  </si>
+  <si>
+    <t>CR0805-FX-8060ELF</t>
+  </si>
+  <si>
+    <t>MCU08050C4999FP500</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/?qs=FxQuwy19cyC8TXs2ZwvXNA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProjectManager/ProjectDetail.aspx?AccessID=51b89e18ab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -649,6 +652,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF0183C1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -992,8 +1001,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1357,36 +1367,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -1409,8 +1424,14 @@
       <c r="J4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M4" t="s">
+        <v>155</v>
+      </c>
+      <c r="N4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1433,13 +1454,19 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
+        <v>162</v>
+      </c>
+      <c r="I5" t="s">
+        <v>157</v>
+      </c>
+      <c r="N5" t="s">
         <v>12</v>
       </c>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="O5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1450,25 +1477,31 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>16</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>17</v>
       </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1479,25 +1512,31 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
         <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
         <v>21</v>
       </c>
-      <c r="I7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1508,54 +1547,66 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
         <v>23</v>
       </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>24</v>
       </c>
-      <c r="I8" t="s">
+      <c r="N8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
       </c>
       <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
         <v>16</v>
       </c>
-      <c r="H9" t="s">
-        <v>17</v>
-      </c>
       <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="N9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1566,25 +1617,31 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
         <v>29</v>
       </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>30</v>
       </c>
-      <c r="I10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>7</v>
       </c>
@@ -1595,25 +1652,31 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
         <v>32</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
         <v>33</v>
       </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N11" t="s">
+        <v>33</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1624,25 +1687,31 @@
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" t="s">
         <v>30</v>
       </c>
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N12" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1653,25 +1722,31 @@
         <v>5</v>
       </c>
       <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
         <v>36</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s">
         <v>37</v>
       </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N13" t="s">
+        <v>37</v>
+      </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1682,25 +1757,31 @@
         <v>5</v>
       </c>
       <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
         <v>39</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>40</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>41</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s">
         <v>42</v>
       </c>
-      <c r="H14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>11</v>
       </c>
@@ -1711,25 +1792,31 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
         <v>44</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>45</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>46</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" t="s">
         <v>47</v>
       </c>
-      <c r="H15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N15" t="s">
+        <v>47</v>
+      </c>
+      <c r="O15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12</v>
       </c>
@@ -1740,25 +1827,31 @@
         <v>5</v>
       </c>
       <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
         <v>49</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>50</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
         <v>51</v>
       </c>
-      <c r="G16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>52</v>
       </c>
-      <c r="I16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="N16" t="s">
+        <v>52</v>
+      </c>
+      <c r="O16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>13</v>
       </c>
@@ -1769,25 +1862,31 @@
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" t="s">
         <v>54</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>55</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>56</v>
       </c>
-      <c r="H17" t="s">
-        <v>57</v>
-      </c>
       <c r="I17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="N17" t="s">
+        <v>158</v>
+      </c>
+      <c r="O17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>14</v>
       </c>
@@ -1798,22 +1897,28 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" t="s">
         <v>59</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
         <v>60</v>
       </c>
-      <c r="F18" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" t="s">
-        <v>62</v>
-      </c>
       <c r="H18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="N18" t="s">
+        <v>65</v>
+      </c>
+      <c r="O18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>15</v>
       </c>
@@ -1824,25 +1929,31 @@
         <v>5</v>
       </c>
       <c r="D19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" t="s">
         <v>63</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
         <v>64</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" t="s">
         <v>65</v>
       </c>
-      <c r="G19" t="s">
-        <v>66</v>
-      </c>
-      <c r="H19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="N19" t="s">
+        <v>82</v>
+      </c>
+      <c r="O19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>16</v>
       </c>
@@ -1853,22 +1964,28 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" t="s">
         <v>68</v>
       </c>
-      <c r="E20" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" t="s">
-        <v>70</v>
-      </c>
       <c r="H20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="N20" t="s">
+        <v>159</v>
+      </c>
+      <c r="O20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>17</v>
       </c>
@@ -1879,22 +1996,28 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" t="s">
         <v>71</v>
       </c>
-      <c r="E21" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" t="s">
-        <v>73</v>
-      </c>
       <c r="H21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="N21" t="s">
+        <v>87</v>
+      </c>
+      <c r="O21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>18</v>
       </c>
@@ -1905,19 +2028,25 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" t="s">
         <v>74</v>
       </c>
-      <c r="E22" t="s">
+      <c r="G22" t="s">
         <v>75</v>
       </c>
-      <c r="F22" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="N22" t="s">
+        <v>160</v>
+      </c>
+      <c r="O22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>19</v>
       </c>
@@ -1928,19 +2057,25 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" t="s">
         <v>78</v>
       </c>
-      <c r="E23" t="s">
-        <v>79</v>
-      </c>
-      <c r="F23" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="N23" t="s">
+        <v>82</v>
+      </c>
+      <c r="O23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>20</v>
       </c>
@@ -1951,25 +2086,31 @@
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" t="s">
         <v>81</v>
       </c>
-      <c r="F24" t="s">
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" t="s">
         <v>82</v>
       </c>
-      <c r="G24" t="s">
-        <v>83</v>
-      </c>
-      <c r="H24" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="N24" t="s">
+        <v>92</v>
+      </c>
+      <c r="O24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>21</v>
       </c>
@@ -1980,25 +2121,31 @@
         <v>5</v>
       </c>
       <c r="D25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" t="s">
         <v>85</v>
       </c>
-      <c r="E25" t="s">
-        <v>86</v>
-      </c>
-      <c r="F25" t="s">
-        <v>87</v>
-      </c>
       <c r="G25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+      <c r="N25" t="s">
+        <v>161</v>
+      </c>
+      <c r="O25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>22</v>
       </c>
@@ -2009,25 +2156,31 @@
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E26">
         <v>120</v>
       </c>
       <c r="F26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" t="s">
+        <v>81</v>
+      </c>
+      <c r="H26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" t="s">
         <v>87</v>
       </c>
-      <c r="G26" t="s">
-        <v>83</v>
-      </c>
-      <c r="H26" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="N26" t="s">
+        <v>113</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>23</v>
       </c>
@@ -2038,25 +2191,31 @@
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E27">
         <v>806</v>
       </c>
       <c r="F27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I27" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="N27" t="s">
+        <v>121</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>24</v>
       </c>
@@ -2067,25 +2226,31 @@
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E28" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I28" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="N28" t="s">
+        <v>126</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>25</v>
       </c>
@@ -2096,25 +2261,31 @@
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E29" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I29" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="N29" t="s">
+        <v>128</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>26</v>
       </c>
@@ -2125,25 +2296,31 @@
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E30">
         <v>50</v>
       </c>
       <c r="F30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I30" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+      <c r="N30" t="s">
+        <v>133</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>27</v>
       </c>
@@ -2154,22 +2331,28 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E31" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F31" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G31" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="N31" t="s">
+        <v>139</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>28</v>
       </c>
@@ -2180,19 +2363,25 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E32" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F32" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G32" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H32" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="N32" t="s">
+        <v>145</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -2206,19 +2395,19 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E33" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F33" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G33" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -2232,19 +2421,19 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E34" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F34" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G34" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -2258,19 +2447,19 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E35" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F35" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G35" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -2284,19 +2473,19 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E36" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F36" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G36" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -2310,19 +2499,19 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E37" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F37" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G37" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -2336,19 +2525,19 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E38" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F38" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G38" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I38" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -2362,22 +2551,22 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
+        <v>116</v>
+      </c>
+      <c r="E39" t="s">
+        <v>117</v>
+      </c>
+      <c r="F39" t="s">
+        <v>118</v>
+      </c>
+      <c r="G39" t="s">
+        <v>119</v>
+      </c>
+      <c r="H39" t="s">
+        <v>120</v>
+      </c>
+      <c r="I39" t="s">
         <v>121</v>
-      </c>
-      <c r="E39" t="s">
-        <v>122</v>
-      </c>
-      <c r="F39" t="s">
-        <v>123</v>
-      </c>
-      <c r="G39" t="s">
-        <v>124</v>
-      </c>
-      <c r="H39" t="s">
-        <v>125</v>
-      </c>
-      <c r="I39" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -2391,19 +2580,19 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E40" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F40" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G40" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I40" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -2417,22 +2606,22 @@
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E41" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F41" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G41" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H41" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="I41" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -2446,19 +2635,19 @@
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E42" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F42" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G42" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I42" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -2472,19 +2661,19 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E43" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F43" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G43" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I43" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -2498,22 +2687,22 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
+        <v>140</v>
+      </c>
+      <c r="E44" t="s">
+        <v>141</v>
+      </c>
+      <c r="F44" t="s">
+        <v>142</v>
+      </c>
+      <c r="G44" t="s">
+        <v>143</v>
+      </c>
+      <c r="H44" t="s">
+        <v>144</v>
+      </c>
+      <c r="I44" t="s">
         <v>145</v>
-      </c>
-      <c r="E44" t="s">
-        <v>146</v>
-      </c>
-      <c r="F44" t="s">
-        <v>147</v>
-      </c>
-      <c r="G44" t="s">
-        <v>148</v>
-      </c>
-      <c r="H44" t="s">
-        <v>149</v>
-      </c>
-      <c r="I44" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
